--- a/biology/Botanique/Robiquetia/Robiquetia.xlsx
+++ b/biology/Botanique/Robiquetia/Robiquetia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robiquetia est un genre de plantes de la famille des Orchidaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 octobre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 octobre 2021) :
 Robiquetia adelineana P.O'Byrne
 Robiquetia amboinensis (J.J.Sm.) J.J.Sm.
 Robiquetia anceps J.J.Sm.
@@ -559,7 +573,7 @@
 Robiquetia viridirosea J.J.Sm.
 Robiquetia wassellii Dockrill
 Robiquetia woodfordii (Rolfe) Garay
-Selon World Checklist of Selected Plant Families (WCSP)  (13 octobre 2021)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (13 octobre 2021) :
 Robiquetia aberrans (Schltr.) Kocyan &amp; Schuit. (2014)
 Robiquetia adelineana P.O'Byrne (2007)
 Robiquetia amboinensis (J.J.Sm.) J.J.Sm. (1912)
@@ -658,7 +672,7 @@
 Robiquetia wassellii Dockrill (1967)
 Robiquetia witteana (Rchb.f.) Kocyan &amp; Schuit. (2014)
 Robiquetia woodfordii (Rolfe) Garay (1972)
-Selon NCBI  (13 octobre 2021)[3] :
+Selon NCBI  (13 octobre 2021) :
 Robiquetia bertholdii (Rchb.f.) Schltr.
 Robiquetia brevifolia (Lindl.) Garay, 1972
 Robiquetia cerina (Rchb.f.) Garay
@@ -667,7 +681,7 @@
 Robiquetia spathulata (Blume) J.J.Sm.
 Robiquetia succisa (Lindl.) Seidenf. &amp; Garay
 Robiquetia virescens Ormerod &amp; S.S.Fernando, 2008
-Selon The Plant List            (13 octobre 2021)[4] :
+Selon The Plant List            (13 octobre 2021) :
 Robiquetia adelineana P.O'Byrne
 Robiquetia amboinensis (J.J.Sm.) J.J.Sm.
 Robiquetia anceps J.J.Sm.
@@ -713,7 +727,7 @@
 Robiquetia viridirosea J.J.Sm.
 Robiquetia wassellii Dockrill
 Robiquetia woodfordii (Rolfe) Garay
-Selon Tropicos                                           (13 octobre 2021)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Robiquetia adelineana P. O'Byrne
 Robiquetia amboinensis (J.J. Sm.) J.J. Sm.
 Robiquetia anceps J.J. Sm.
